--- a/src/main/resources/static/UserTemplate.xlsx
+++ b/src/main/resources/static/UserTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web\gctaatt\GCTAAttendanceSystem\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF212D-C539-4481-B4D6-FE1B6A42BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29531AD1-E845-4BE0-A920-A12FDAF12961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="204" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -445,13 +445,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{6E9C0A1A-C616-4C7C-A019-BA605E9F158C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576 C2" xr:uid="{6E9C0A1A-C616-4C7C-A019-BA605E9F158C}">
       <formula1>"多媒体部,硬件部,软件部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{E410D9CD-7A00-407D-9E2E-AE96811691ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 D2" xr:uid="{E410D9CD-7A00-407D-9E2E-AE96811691ED}">
       <formula1>"5102,5108,5109"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{1A649B50-9BA9-4173-903E-19720DFDB42F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 F2" xr:uid="{1A649B50-9BA9-4173-903E-19720DFDB42F}">
       <formula1>0</formula1>
       <formula2>99</formula2>
     </dataValidation>

--- a/src/main/resources/static/UserTemplate.xlsx
+++ b/src/main/resources/static/UserTemplate.xlsx
@@ -81,15 +81,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,12 +543,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,8 +673,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.4375" customWidth="1"/>
     <col min="5" max="5" width="15.7767857142857" customWidth="1"/>
@@ -1032,17 +1038,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>0</formula1>
+      <formula2>99</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1>"多媒体部,硬件部,软件部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>"5102,5108,5109"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 E4">
-      <formula1>0</formula1>
-      <formula2>99</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="必须是0到99的整数" sqref="F3:F1048576">
       <formula1>0</formula1>

--- a/src/main/resources/static/UserTemplate.xlsx
+++ b/src/main/resources/static/UserTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23360" windowHeight="15340"/>
+    <workbookView windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>学号</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>方向</t>
+  </si>
+  <si>
+    <t>github</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1008,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1015,7 +1018,7 @@
     <col min="6" max="6" width="20.1071428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,6 +1039,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
